--- a/Infraestructura/Construyendo País/Febrero 2019/Compromisos Taller Construyendo Pais DPI 09 de Febrero.xlsx
+++ b/Infraestructura/Construyendo País/Febrero 2019/Compromisos Taller Construyendo Pais DPI 09 de Febrero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Dotaciones2019\Infraestructura\Construyendo País\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Dotaciones2019\Infraestructura\Construyendo País\Febrero 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
